--- a/question4.xlsx
+++ b/question4.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,10 +721,10 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>408.8488888888888</v>
+        <v>408.4287499999999</v>
       </c>
       <c r="L7" t="n">
-        <v>417.7060717948717</v>
+        <v>470.5317505434781</v>
       </c>
     </row>
     <row r="8">
@@ -797,10 +797,10 @@
         <v>16.36000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>414.6342857142856</v>
+        <v>415.695</v>
       </c>
       <c r="L9" t="n">
-        <v>125.6593157142859</v>
+        <v>117.4872000000001</v>
       </c>
     </row>
     <row r="10">
@@ -873,10 +873,10 @@
         <v>20.57</v>
       </c>
       <c r="K11" t="n">
-        <v>420.67</v>
+        <v>421.27</v>
       </c>
       <c r="L11" t="n">
-        <v>16.18171764705895</v>
+        <v>16.02246000000012</v>
       </c>
     </row>
     <row r="12">
@@ -1253,10 +1253,10 @@
         <v>18.70999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>421.0642857142857</v>
+        <v>424.9412500000001</v>
       </c>
       <c r="L21" t="n">
-        <v>61.04258571428586</v>
+        <v>162.8710809782613</v>
       </c>
     </row>
     <row r="22">
@@ -1367,10 +1367,10 @@
         <v>16.66000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>412.4474999999998</v>
+        <v>415.592857142857</v>
       </c>
       <c r="L24" t="n">
-        <v>175.5456456521741</v>
+        <v>118.7740114285714</v>
       </c>
     </row>
     <row r="25">
@@ -1983,1289 +1983,1255 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>561.2946666666667</v>
+      </c>
       <c r="D41" t="n">
-        <v>348.6170833333333</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>646.3049999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>44642.28839809523</v>
+      </c>
       <c r="F41" t="n">
-        <v>12732.77303894927</v>
+        <v>32875.60959130436</v>
       </c>
       <c r="G41" t="n">
-        <v>55.52999999999998</v>
+        <v>56.07999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>105.06</v>
+        <v>113.75</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67999999999998</v>
+        <v>45.76999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>18.80000000000001</v>
+        <v>20.86000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>398.2212500000001</v>
+        <v>408.1577777777778</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.701098369565</v>
+        <v>85.08841794871802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>561.2946666666667</v>
+        <v>988.0570833333333</v>
       </c>
       <c r="D42" t="n">
-        <v>646.3049999999999</v>
+        <v>933.1104166666668</v>
       </c>
       <c r="E42" t="n">
-        <v>44642.28839809523</v>
+        <v>39144.56603025361</v>
       </c>
       <c r="F42" t="n">
-        <v>32875.60959130436</v>
+        <v>5173.341743297093</v>
       </c>
       <c r="G42" t="n">
-        <v>56.07999999999999</v>
+        <v>54.39000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>113.75</v>
+        <v>98.55999999999996</v>
       </c>
       <c r="I42" t="n">
-        <v>45.76999999999999</v>
+        <v>46.98000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>20.86000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="K42" t="n">
-        <v>408.1577777777778</v>
+        <v>406.2587500000001</v>
       </c>
       <c r="L42" t="n">
-        <v>85.08841794871802</v>
+        <v>64.33592445652151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>988.0570833333333</v>
+        <v>1091</v>
       </c>
       <c r="D43" t="n">
-        <v>933.1104166666668</v>
+        <v>910.3820833333333</v>
       </c>
       <c r="E43" t="n">
-        <v>39144.56603025361</v>
+        <v>35261.45959999999</v>
       </c>
       <c r="F43" t="n">
-        <v>5173.341743297093</v>
+        <v>7065.017999818845</v>
       </c>
       <c r="G43" t="n">
-        <v>54.39000000000001</v>
+        <v>57.47000000000002</v>
       </c>
       <c r="H43" t="n">
-        <v>98.55999999999996</v>
+        <v>109.47</v>
       </c>
       <c r="I43" t="n">
-        <v>46.98000000000001</v>
+        <v>46.60999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>19.5</v>
+        <v>17.77</v>
       </c>
       <c r="K43" t="n">
-        <v>406.2587500000001</v>
+        <v>407.8950000000002</v>
       </c>
       <c r="L43" t="n">
-        <v>64.33592445652151</v>
+        <v>35.50917391304363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B44" t="n">
         <v>20.83333333333334</v>
       </c>
       <c r="C44" t="n">
-        <v>1091</v>
+        <v>834.3937500000001</v>
       </c>
       <c r="D44" t="n">
-        <v>910.3820833333333</v>
+        <v>844.4008333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>35261.45959999999</v>
+        <v>36288.01478967394</v>
       </c>
       <c r="F44" t="n">
-        <v>7065.017999818845</v>
+        <v>14008.57044275362</v>
       </c>
       <c r="G44" t="n">
-        <v>57.47000000000002</v>
+        <v>56.77999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>109.47</v>
+        <v>112.69</v>
       </c>
       <c r="I44" t="n">
-        <v>46.60999999999999</v>
+        <v>45.83000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>17.77</v>
+        <v>19.02999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>407.8950000000002</v>
+        <v>419.7275</v>
       </c>
       <c r="L44" t="n">
-        <v>35.50917391304363</v>
+        <v>63.60466304347831</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B45" t="n">
-        <v>20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>834.3937500000001</v>
+        <v>613.867619047619</v>
       </c>
       <c r="D45" t="n">
-        <v>844.4008333333333</v>
+        <v>732.567619047619</v>
       </c>
       <c r="E45" t="n">
-        <v>36288.01478967394</v>
+        <v>22583.80586904765</v>
       </c>
       <c r="F45" t="n">
-        <v>14008.57044275362</v>
+        <v>18352.51229904763</v>
       </c>
       <c r="G45" t="n">
-        <v>56.77999999999998</v>
+        <v>54.19000000000002</v>
       </c>
       <c r="H45" t="n">
-        <v>112.69</v>
+        <v>98.60999999999996</v>
       </c>
       <c r="I45" t="n">
-        <v>45.83000000000001</v>
+        <v>47.88</v>
       </c>
       <c r="J45" t="n">
-        <v>19.02999999999999</v>
+        <v>21.55000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>421.5614285714286</v>
+        <v>433.2274999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>44.89369285714286</v>
+        <v>194.5136386363634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="C46" t="n">
-        <v>613.867619047619</v>
+        <v>812.4104166666666</v>
       </c>
       <c r="D46" t="n">
-        <v>732.567619047619</v>
+        <v>819.2637500000001</v>
       </c>
       <c r="E46" t="n">
-        <v>22583.80586904765</v>
+        <v>16132.45466503623</v>
       </c>
       <c r="F46" t="n">
-        <v>18352.51229904763</v>
+        <v>9500.698659239131</v>
       </c>
       <c r="G46" t="n">
-        <v>54.19000000000002</v>
+        <v>54.44000000000003</v>
       </c>
       <c r="H46" t="n">
-        <v>98.60999999999996</v>
+        <v>94.31999999999998</v>
       </c>
       <c r="I46" t="n">
-        <v>47.88</v>
+        <v>47.88000000000002</v>
       </c>
       <c r="J46" t="n">
-        <v>21.55000000000001</v>
+        <v>23.07999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>433.2274999999999</v>
+        <v>447.30375</v>
       </c>
       <c r="L46" t="n">
-        <v>194.5136386363634</v>
+        <v>99.72683315217373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B47" t="n">
-        <v>8.333333333333332</v>
+        <v>12.5</v>
       </c>
       <c r="C47" t="n">
-        <v>812.4104166666666</v>
+        <v>720.5231578947369</v>
       </c>
       <c r="D47" t="n">
-        <v>819.2637500000001</v>
+        <v>751.3416666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>16132.45466503623</v>
+        <v>74313.94902280704</v>
       </c>
       <c r="F47" t="n">
-        <v>9500.698659239131</v>
+        <v>19953.08326666667</v>
       </c>
       <c r="G47" t="n">
-        <v>54.44000000000003</v>
+        <v>58.14000000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>94.31999999999998</v>
+        <v>108.41</v>
       </c>
       <c r="I47" t="n">
-        <v>47.88000000000002</v>
+        <v>44.91999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>23.07999999999999</v>
+        <v>18.18</v>
       </c>
       <c r="K47" t="n">
-        <v>447.30375</v>
+        <v>419.5512500000002</v>
       </c>
       <c r="L47" t="n">
-        <v>99.72683315217373</v>
+        <v>862.9715853260875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="C48" t="n">
-        <v>720.5231578947369</v>
+        <v>1303.7625</v>
       </c>
       <c r="D48" t="n">
-        <v>751.3416666666667</v>
+        <v>1015.682083333333</v>
       </c>
       <c r="E48" t="n">
-        <v>74313.94902280704</v>
+        <v>35582.27858478259</v>
       </c>
       <c r="F48" t="n">
-        <v>19953.08326666667</v>
+        <v>732.3197041666755</v>
       </c>
       <c r="G48" t="n">
-        <v>58.14000000000002</v>
+        <v>54.41</v>
       </c>
       <c r="H48" t="n">
-        <v>108.41</v>
+        <v>93.77</v>
       </c>
       <c r="I48" t="n">
-        <v>44.91999999999999</v>
+        <v>50.84</v>
       </c>
       <c r="J48" t="n">
-        <v>18.18</v>
+        <v>19.31</v>
       </c>
       <c r="K48" t="n">
-        <v>419.5512500000002</v>
+        <v>400.83</v>
       </c>
       <c r="L48" t="n">
-        <v>862.9715853260875</v>
+        <v>158.2367307692307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B49" t="n">
         <v>54.16666666666666</v>
       </c>
       <c r="C49" t="n">
-        <v>1303.7625</v>
+        <v>973.0504166666666</v>
       </c>
       <c r="D49" t="n">
-        <v>1015.682083333333</v>
+        <v>960.5504166666666</v>
       </c>
       <c r="E49" t="n">
-        <v>35582.27858478259</v>
+        <v>61169.57957807969</v>
       </c>
       <c r="F49" t="n">
-        <v>732.3197041666755</v>
+        <v>4377.285560688404</v>
       </c>
       <c r="G49" t="n">
-        <v>54.41</v>
+        <v>57.01999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>93.77</v>
+        <v>109.98</v>
       </c>
       <c r="I49" t="n">
-        <v>50.84</v>
+        <v>49.63000000000002</v>
       </c>
       <c r="J49" t="n">
-        <v>19.31</v>
+        <v>19.20999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>400.83</v>
+        <v>419.2299999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>158.2367307692307</v>
+        <v>165.2902200000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B50" t="n">
-        <v>54.16666666666666</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="C50" t="n">
-        <v>973.0504166666666</v>
+        <v>1096.74125</v>
       </c>
       <c r="D50" t="n">
-        <v>960.5504166666666</v>
+        <v>963.2579166666666</v>
       </c>
       <c r="E50" t="n">
-        <v>61169.57957807969</v>
+        <v>46543.72399402173</v>
       </c>
       <c r="F50" t="n">
-        <v>4377.285560688404</v>
+        <v>11127.41336503623</v>
       </c>
       <c r="G50" t="n">
-        <v>57.01999999999999</v>
+        <v>55.11999999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>109.98</v>
+        <v>112.1</v>
       </c>
       <c r="I50" t="n">
-        <v>49.63000000000002</v>
+        <v>48.05999999999997</v>
       </c>
       <c r="J50" t="n">
-        <v>19.20999999999999</v>
+        <v>20.25999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>418.5162499999999</v>
+        <v>416.2175</v>
       </c>
       <c r="L50" t="n">
-        <v>147.4517461956523</v>
+        <v>60.27891521739161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B51" t="n">
         <v>4.166666666666666</v>
       </c>
       <c r="C51" t="n">
-        <v>1096.74125</v>
+        <v>625.6695833333333</v>
       </c>
       <c r="D51" t="n">
-        <v>963.2579166666666</v>
+        <v>721.1029166666667</v>
       </c>
       <c r="E51" t="n">
-        <v>46543.72399402173</v>
+        <v>33655.55701286231</v>
       </c>
       <c r="F51" t="n">
-        <v>11127.41336503623</v>
+        <v>9639.579525905801</v>
       </c>
       <c r="G51" t="n">
-        <v>55.11999999999998</v>
+        <v>57.84999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>112.1</v>
+        <v>113.6300000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>48.05999999999997</v>
+        <v>45.76999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>20.25999999999999</v>
+        <v>18.23</v>
       </c>
       <c r="K51" t="n">
-        <v>416.2175</v>
+        <v>417.6612499999999</v>
       </c>
       <c r="L51" t="n">
-        <v>60.27891521739161</v>
+        <v>40.86569836956517</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B52" t="n">
-        <v>4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>625.6695833333333</v>
+        <v>813.8291666666668</v>
       </c>
       <c r="D52" t="n">
-        <v>721.1029166666667</v>
+        <v>885.1804166666666</v>
       </c>
       <c r="E52" t="n">
-        <v>33655.55701286231</v>
+        <v>11167.95711231885</v>
       </c>
       <c r="F52" t="n">
-        <v>9639.579525905801</v>
+        <v>239.4577085144918</v>
       </c>
       <c r="G52" t="n">
-        <v>57.84999999999999</v>
+        <v>53.73000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>113.6300000000001</v>
+        <v>106.8800000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>45.76999999999999</v>
+        <v>43.77999999999998</v>
       </c>
       <c r="J52" t="n">
-        <v>18.23</v>
+        <v>21.30000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>417.6612499999999</v>
+        <v>426.1824999999999</v>
       </c>
       <c r="L52" t="n">
-        <v>40.86569836956517</v>
+        <v>104.978210869565</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>813.8291666666668</v>
+        <v>863.9812499999999</v>
       </c>
       <c r="D53" t="n">
-        <v>885.1804166666666</v>
+        <v>779.2854166666666</v>
       </c>
       <c r="E53" t="n">
-        <v>11167.95711231885</v>
+        <v>123790.7496635869</v>
       </c>
       <c r="F53" t="n">
-        <v>239.4577085144918</v>
+        <v>29479.12634764493</v>
       </c>
       <c r="G53" t="n">
-        <v>53.73000000000001</v>
+        <v>58.52999999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>106.8800000000001</v>
+        <v>117.06</v>
       </c>
       <c r="I53" t="n">
-        <v>43.77999999999998</v>
+        <v>43.53999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>21.30000000000001</v>
+        <v>18.37</v>
       </c>
       <c r="K53" t="n">
-        <v>426.1824999999999</v>
+        <v>434.4437499999999</v>
       </c>
       <c r="L53" t="n">
-        <v>104.978210869565</v>
+        <v>57.53856358695653</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C54" t="n">
-        <v>863.9812499999999</v>
+        <v>457.9404166666666</v>
       </c>
       <c r="D54" t="n">
-        <v>779.2854166666666</v>
+        <v>673.2433333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>123790.7496635869</v>
+        <v>17158.30823025361</v>
       </c>
       <c r="F54" t="n">
-        <v>29479.12634764493</v>
+        <v>18004.46876231884</v>
       </c>
       <c r="G54" t="n">
-        <v>58.52999999999998</v>
+        <v>55.75</v>
       </c>
       <c r="H54" t="n">
-        <v>117.06</v>
+        <v>102.09</v>
       </c>
       <c r="I54" t="n">
-        <v>43.53999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="J54" t="n">
-        <v>18.37</v>
+        <v>20.50999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>434.4437499999999</v>
+        <v>424.6874999999998</v>
       </c>
       <c r="L54" t="n">
-        <v>57.53856358695653</v>
+        <v>186.183854347826</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B55" t="n">
-        <v>12.5</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="C55" t="n">
-        <v>457.9404166666666</v>
+        <v>891.3025000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>673.2433333333333</v>
+        <v>817.19625</v>
       </c>
       <c r="E55" t="n">
-        <v>17158.30823025361</v>
+        <v>60486.11487173913</v>
       </c>
       <c r="F55" t="n">
-        <v>18004.46876231884</v>
+        <v>1786.823485326086</v>
       </c>
       <c r="G55" t="n">
-        <v>55.75</v>
+        <v>54.34999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>102.09</v>
+        <v>99.11999999999995</v>
       </c>
       <c r="I55" t="n">
-        <v>47.4</v>
+        <v>45.40999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>20.50999999999999</v>
+        <v>21.75999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>424.6874999999998</v>
+        <v>417.5362500000001</v>
       </c>
       <c r="L55" t="n">
-        <v>186.183854347826</v>
+        <v>199.3045288043479</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B56" t="n">
-        <v>8.333333333333332</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="C56" t="n">
-        <v>891.3025000000001</v>
+        <v>673.2195652173913</v>
       </c>
       <c r="D56" t="n">
-        <v>817.19625</v>
+        <v>693.2469565217391</v>
       </c>
       <c r="E56" t="n">
-        <v>60486.11487173913</v>
+        <v>139830.2723952569</v>
       </c>
       <c r="F56" t="n">
-        <v>1786.823485326086</v>
+        <v>17756.05724940711</v>
       </c>
       <c r="G56" t="n">
-        <v>54.34999999999999</v>
+        <v>53.92999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>99.11999999999995</v>
+        <v>97.63000000000005</v>
       </c>
       <c r="I56" t="n">
-        <v>45.40999999999999</v>
+        <v>47.03999999999998</v>
       </c>
       <c r="J56" t="n">
-        <v>21.75999999999999</v>
+        <v>21.81</v>
       </c>
       <c r="K56" t="n">
-        <v>417.5362500000001</v>
+        <v>421.72</v>
       </c>
       <c r="L56" t="n">
-        <v>199.3045288043479</v>
+        <v>592.1497565217394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B57" t="n">
-        <v>17.39130434782609</v>
+        <v>37.5</v>
       </c>
       <c r="C57" t="n">
-        <v>673.2195652173913</v>
+        <v>688.85875</v>
       </c>
       <c r="D57" t="n">
-        <v>693.2469565217391</v>
+        <v>727.9108333333334</v>
       </c>
       <c r="E57" t="n">
-        <v>139830.2723952569</v>
+        <v>9209.505080978266</v>
       </c>
       <c r="F57" t="n">
-        <v>17756.05724940711</v>
+        <v>8360.332364492753</v>
       </c>
       <c r="G57" t="n">
-        <v>53.92999999999999</v>
+        <v>56.76</v>
       </c>
       <c r="H57" t="n">
-        <v>97.63000000000005</v>
+        <v>101.07</v>
       </c>
       <c r="I57" t="n">
-        <v>47.03999999999998</v>
+        <v>47.4</v>
       </c>
       <c r="J57" t="n">
-        <v>21.81</v>
+        <v>19.13999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>421.72</v>
+        <v>413.6475</v>
       </c>
       <c r="L57" t="n">
-        <v>592.1497565217394</v>
+        <v>306.7331152173908</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B58" t="n">
-        <v>37.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="C58" t="n">
-        <v>688.85875</v>
+        <v>585.4995652173913</v>
       </c>
       <c r="D58" t="n">
-        <v>727.9108333333334</v>
+        <v>579.3520833333333</v>
       </c>
       <c r="E58" t="n">
-        <v>9209.505080978266</v>
+        <v>79207.17957707508</v>
       </c>
       <c r="F58" t="n">
-        <v>8360.332364492753</v>
+        <v>18791.66726938405</v>
       </c>
       <c r="G58" t="n">
-        <v>56.76</v>
+        <v>54.59999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>101.07</v>
+        <v>102.47</v>
       </c>
       <c r="I58" t="n">
-        <v>47.4</v>
+        <v>46.42999999999998</v>
       </c>
       <c r="J58" t="n">
-        <v>19.13999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="K58" t="n">
-        <v>413.6475</v>
+        <v>393.0175000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>306.7331152173908</v>
+        <v>61.01308043478259</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B59" t="n">
-        <v>16.66666666666666</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="C59" t="n">
-        <v>585.4995652173913</v>
+        <v>642.235</v>
       </c>
       <c r="D59" t="n">
-        <v>579.3520833333333</v>
+        <v>641.9754166666667</v>
       </c>
       <c r="E59" t="n">
-        <v>79207.17957707508</v>
+        <v>43106.5894547619</v>
       </c>
       <c r="F59" t="n">
-        <v>18791.66726938405</v>
+        <v>22720.46786938408</v>
       </c>
       <c r="G59" t="n">
-        <v>54.59999999999999</v>
+        <v>54.13000000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>102.47</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>46.42999999999998</v>
+        <v>49.21000000000002</v>
       </c>
       <c r="J59" t="n">
-        <v>20.5</v>
+        <v>20.82</v>
       </c>
       <c r="K59" t="n">
-        <v>393.0175000000001</v>
+        <v>398.1525</v>
       </c>
       <c r="L59" t="n">
-        <v>61.01308043478259</v>
+        <v>261.6878804347829</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B60" t="n">
         <v>41.66666666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>642.235</v>
+        <v>1252.314583333333</v>
       </c>
       <c r="D60" t="n">
-        <v>641.9754166666667</v>
+        <v>887.6041666666666</v>
       </c>
       <c r="E60" t="n">
-        <v>43106.5894547619</v>
+        <v>85914.47873894921</v>
       </c>
       <c r="F60" t="n">
-        <v>22720.46786938408</v>
+        <v>7589.375034057969</v>
       </c>
       <c r="G60" t="n">
-        <v>54.13000000000002</v>
+        <v>52.05999999999997</v>
       </c>
       <c r="H60" t="n">
-        <v>91.98999999999999</v>
+        <v>80.15000000000003</v>
       </c>
       <c r="I60" t="n">
-        <v>49.21000000000002</v>
+        <v>52.34999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>20.82</v>
+        <v>22.35000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>398.1525</v>
+        <v>418.1325</v>
       </c>
       <c r="L60" t="n">
-        <v>261.6878804347829</v>
+        <v>159.5738543478258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B61" t="n">
-        <v>41.66666666666667</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="C61" t="n">
-        <v>1252.314583333333</v>
+        <v>1003.287916666667</v>
       </c>
       <c r="D61" t="n">
-        <v>887.6041666666666</v>
+        <v>862.265</v>
       </c>
       <c r="E61" t="n">
-        <v>85914.47873894921</v>
+        <v>29454.71356503622</v>
       </c>
       <c r="F61" t="n">
-        <v>7589.375034057969</v>
+        <v>1931.468278260873</v>
       </c>
       <c r="G61" t="n">
-        <v>52.05999999999997</v>
+        <v>56.25</v>
       </c>
       <c r="H61" t="n">
-        <v>80.15000000000003</v>
+        <v>104.5</v>
       </c>
       <c r="I61" t="n">
-        <v>52.34999999999999</v>
+        <v>48.91</v>
       </c>
       <c r="J61" t="n">
-        <v>22.35000000000001</v>
+        <v>18.56</v>
       </c>
       <c r="K61" t="n">
-        <v>418.1325</v>
+        <v>429.74</v>
       </c>
       <c r="L61" t="n">
-        <v>159.5738543478258</v>
+        <v>482.7308869565224</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B62" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="C62" t="n">
-        <v>1003.287916666667</v>
+        <v>1115.09125</v>
       </c>
       <c r="D62" t="n">
-        <v>862.265</v>
+        <v>810.1020833333333</v>
       </c>
       <c r="E62" t="n">
-        <v>29454.71356503622</v>
+        <v>83518.6462722827</v>
       </c>
       <c r="F62" t="n">
-        <v>1931.468278260873</v>
+        <v>11753.96797373188</v>
       </c>
       <c r="G62" t="n">
-        <v>56.25</v>
+        <v>55.53999999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>104.5</v>
+        <v>99.53999999999998</v>
       </c>
       <c r="I62" t="n">
-        <v>48.91</v>
+        <v>45.35000000000002</v>
       </c>
       <c r="J62" t="n">
-        <v>18.56</v>
+        <v>20.80000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>430.5122222222221</v>
+        <v>432.5188888888889</v>
       </c>
       <c r="L62" t="n">
-        <v>431.9852717948722</v>
+        <v>24.57944871794869</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B63" t="n">
-        <v>33.33333333333333</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="C63" t="n">
-        <v>1115.09125</v>
+        <v>747.6075000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>810.1020833333333</v>
+        <v>755.4779166666667</v>
       </c>
       <c r="E63" t="n">
-        <v>83518.6462722827</v>
+        <v>31929.12959347827</v>
       </c>
       <c r="F63" t="n">
-        <v>11753.96797373188</v>
+        <v>8802.634843297101</v>
       </c>
       <c r="G63" t="n">
-        <v>55.53999999999998</v>
+        <v>56.19000000000003</v>
       </c>
       <c r="H63" t="n">
-        <v>99.53999999999998</v>
+        <v>100.86</v>
       </c>
       <c r="I63" t="n">
-        <v>45.35000000000002</v>
+        <v>48.24</v>
       </c>
       <c r="J63" t="n">
-        <v>20.80000000000001</v>
+        <v>19.32999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>432.5188888888889</v>
+        <v>431.1824999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>24.57944871794869</v>
+        <v>70.52383695652178</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B64" t="n">
-        <v>20.83333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="C64" t="n">
-        <v>747.6075000000001</v>
+        <v>972.4625</v>
       </c>
       <c r="D64" t="n">
-        <v>755.4779166666667</v>
+        <v>847.0029166666667</v>
       </c>
       <c r="E64" t="n">
-        <v>31929.12959347827</v>
+        <v>62773.84868913046</v>
       </c>
       <c r="F64" t="n">
-        <v>8802.634843297101</v>
+        <v>8217.463108514492</v>
       </c>
       <c r="G64" t="n">
-        <v>56.19000000000003</v>
+        <v>53.04999999999998</v>
       </c>
       <c r="H64" t="n">
-        <v>100.86</v>
+        <v>99.8</v>
       </c>
       <c r="I64" t="n">
-        <v>48.24</v>
+        <v>46.85</v>
       </c>
       <c r="J64" t="n">
-        <v>19.32999999999999</v>
+        <v>22.37</v>
       </c>
       <c r="K64" t="n">
-        <v>431.1824999999999</v>
+        <v>421.16</v>
       </c>
       <c r="L64" t="n">
-        <v>70.52383695652178</v>
+        <v>158.8041391304346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B65" t="n">
-        <v>37.5</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="C65" t="n">
-        <v>972.4625</v>
+        <v>681.23</v>
       </c>
       <c r="D65" t="n">
-        <v>847.0029166666667</v>
+        <v>764.3045833333334</v>
       </c>
       <c r="E65" t="n">
-        <v>62773.84868913046</v>
+        <v>60781.9682869565</v>
       </c>
       <c r="F65" t="n">
-        <v>8217.463108514492</v>
+        <v>11585.63585199275</v>
       </c>
       <c r="G65" t="n">
-        <v>53.04999999999998</v>
+        <v>56.28999999999998</v>
       </c>
       <c r="H65" t="n">
-        <v>99.8</v>
+        <v>107.26</v>
       </c>
       <c r="I65" t="n">
-        <v>46.85</v>
+        <v>43.16999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>22.37</v>
+        <v>20.44999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>421.16</v>
+        <v>411.7587499999999</v>
       </c>
       <c r="L65" t="n">
-        <v>158.8041391304346</v>
+        <v>99.4802461956522</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B66" t="n">
-        <v>29.16666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="C66" t="n">
-        <v>681.23</v>
+        <v>890.3316666666666</v>
       </c>
       <c r="D66" t="n">
-        <v>764.3045833333334</v>
+        <v>807.5691666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>60781.9682869565</v>
+        <v>135884.9369536232</v>
       </c>
       <c r="F66" t="n">
-        <v>11585.63585199275</v>
+        <v>20441.73801666667</v>
       </c>
       <c r="G66" t="n">
-        <v>56.28999999999998</v>
+        <v>53.73000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>107.26</v>
+        <v>100.18</v>
       </c>
       <c r="I66" t="n">
-        <v>43.16999999999999</v>
+        <v>43.35000000000002</v>
       </c>
       <c r="J66" t="n">
-        <v>20.44999999999999</v>
+        <v>21.85000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>411.7587499999999</v>
+        <v>427.925</v>
       </c>
       <c r="L66" t="n">
-        <v>99.4802461956522</v>
+        <v>30.62572173913031</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B67" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>890.3316666666666</v>
+        <v>810.4034782608695</v>
       </c>
       <c r="D67" t="n">
-        <v>807.5691666666667</v>
+        <v>722.7583333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>135884.9369536232</v>
+        <v>54939.03884189727</v>
       </c>
       <c r="F67" t="n">
-        <v>20441.73801666667</v>
+        <v>19073.57268405794</v>
       </c>
       <c r="G67" t="n">
-        <v>53.73000000000001</v>
+        <v>55.10999999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>100.18</v>
+        <v>106.46</v>
       </c>
       <c r="I67" t="n">
-        <v>43.35000000000002</v>
+        <v>45.83000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>21.85000000000001</v>
+        <v>20.25999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>428.0928571428571</v>
+        <v>420.3287500000001</v>
       </c>
       <c r="L67" t="n">
-        <v>34.98290142857129</v>
+        <v>19.93182880434804</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B68" t="n">
         <v>25</v>
       </c>
       <c r="C68" t="n">
-        <v>810.4034782608695</v>
+        <v>847.1545833333333</v>
       </c>
       <c r="D68" t="n">
-        <v>722.7583333333333</v>
+        <v>736.9558333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>54939.03884189727</v>
+        <v>112875.9681737319</v>
       </c>
       <c r="F68" t="n">
-        <v>19073.57268405794</v>
+        <v>15009.69285144929</v>
       </c>
       <c r="G68" t="n">
-        <v>55.10999999999999</v>
+        <v>54.94000000000003</v>
       </c>
       <c r="H68" t="n">
-        <v>106.46</v>
+        <v>95.64000000000003</v>
       </c>
       <c r="I68" t="n">
-        <v>45.83000000000001</v>
+        <v>48.97000000000002</v>
       </c>
       <c r="J68" t="n">
-        <v>20.25999999999999</v>
+        <v>20.33999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>420.3287500000001</v>
+        <v>424.4362500000001</v>
       </c>
       <c r="L68" t="n">
-        <v>19.93182880434804</v>
+        <v>57.02707663043451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="C69" t="n">
-        <v>847.1545833333333</v>
+        <v>813.75</v>
       </c>
       <c r="D69" t="n">
-        <v>736.9558333333333</v>
+        <v>795.5395833333333</v>
       </c>
       <c r="E69" t="n">
-        <v>112875.9681737319</v>
+        <v>56590.94753913044</v>
       </c>
       <c r="F69" t="n">
-        <v>15009.69285144929</v>
+        <v>10368.05213460145</v>
       </c>
       <c r="G69" t="n">
-        <v>54.94000000000003</v>
+        <v>54.29999999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>95.64000000000003</v>
+        <v>101.07</v>
       </c>
       <c r="I69" t="n">
-        <v>48.97000000000002</v>
+        <v>47.1</v>
       </c>
       <c r="J69" t="n">
-        <v>20.33999999999999</v>
+        <v>20.64999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>424.4362500000001</v>
+        <v>424.4762500000002</v>
       </c>
       <c r="L69" t="n">
-        <v>57.02707663043451</v>
+        <v>87.18297228260843</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B70" t="n">
-        <v>33.33333333333333</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="C70" t="n">
-        <v>813.75</v>
+        <v>457.0585714285714</v>
       </c>
       <c r="D70" t="n">
-        <v>795.5395833333333</v>
+        <v>657.5931818181817</v>
       </c>
       <c r="E70" t="n">
-        <v>56590.94753913044</v>
+        <v>28204.35891285714</v>
       </c>
       <c r="F70" t="n">
-        <v>10368.05213460145</v>
+        <v>2544.47552748918</v>
       </c>
       <c r="G70" t="n">
-        <v>54.29999999999998</v>
+        <v>53.98000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>101.07</v>
+        <v>89.86999999999995</v>
       </c>
       <c r="I70" t="n">
-        <v>47.1</v>
+        <v>51.13999999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>20.64999999999999</v>
+        <v>20.67000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>424.4762500000002</v>
+        <v>424.0550000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>87.18297228260843</v>
+        <v>49.51202608695646</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B71" t="n">
-        <v>22.72727272727273</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="C71" t="n">
-        <v>457.0585714285714</v>
+        <v>778.2416666666667</v>
       </c>
       <c r="D71" t="n">
-        <v>657.5931818181817</v>
+        <v>789.8008333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>28204.35891285714</v>
+        <v>36389.15275362318</v>
       </c>
       <c r="F71" t="n">
-        <v>2544.47552748918</v>
+        <v>11619.5025384058</v>
       </c>
       <c r="G71" t="n">
-        <v>53.98000000000001</v>
+        <v>52.95000000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>89.86999999999995</v>
+        <v>88.08999999999997</v>
       </c>
       <c r="I71" t="n">
-        <v>51.13999999999999</v>
+        <v>52.89000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>20.67000000000001</v>
+        <v>21.58999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>424.0550000000001</v>
+        <v>438.7271428571429</v>
       </c>
       <c r="L71" t="n">
-        <v>49.51202608695646</v>
+        <v>299.3564014285714</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="B72" t="n">
-        <v>66.66666666666666</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="C72" t="n">
-        <v>778.2416666666667</v>
+        <v>591.9491666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>789.8008333333333</v>
+        <v>641.9866666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>36389.15275362318</v>
+        <v>53765.87414710144</v>
       </c>
       <c r="F72" t="n">
-        <v>11619.5025384058</v>
+        <v>11840.68277971015</v>
       </c>
       <c r="G72" t="n">
-        <v>52.95000000000002</v>
+        <v>56.13000000000002</v>
       </c>
       <c r="H72" t="n">
-        <v>88.08999999999997</v>
+        <v>103.83</v>
       </c>
       <c r="I72" t="n">
-        <v>52.89000000000001</v>
+        <v>46.66999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>21.58999999999999</v>
+        <v>20.35000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>438.7271428571429</v>
+        <v>449.06125</v>
       </c>
       <c r="L72" t="n">
-        <v>299.3564014285714</v>
+        <v>115.310124456522</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="B73" t="n">
-        <v>29.16666666666667</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="C73" t="n">
-        <v>591.9491666666667</v>
+        <v>513.8654545454546</v>
       </c>
       <c r="D73" t="n">
-        <v>641.9866666666667</v>
+        <v>636.5122727272727</v>
       </c>
       <c r="E73" t="n">
-        <v>53765.87414710144</v>
+        <v>18641.72998787879</v>
       </c>
       <c r="F73" t="n">
-        <v>11840.68277971015</v>
+        <v>6755.991313636361</v>
       </c>
       <c r="G73" t="n">
-        <v>56.13000000000002</v>
+        <v>54.4</v>
       </c>
       <c r="H73" t="n">
-        <v>103.83</v>
+        <v>105.14</v>
       </c>
       <c r="I73" t="n">
-        <v>46.66999999999999</v>
+        <v>49.02999999999998</v>
       </c>
       <c r="J73" t="n">
-        <v>20.35000000000001</v>
+        <v>20.82</v>
       </c>
       <c r="K73" t="n">
-        <v>449.06125</v>
+        <v>444.2922222222223</v>
       </c>
       <c r="L73" t="n">
-        <v>115.310124456522</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44658</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="C74" t="n">
-        <v>513.8654545454546</v>
-      </c>
-      <c r="D74" t="n">
-        <v>636.5122727272727</v>
-      </c>
-      <c r="E74" t="n">
-        <v>18641.72998787879</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6755.991313636361</v>
-      </c>
-      <c r="G74" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="H74" t="n">
-        <v>105.14</v>
-      </c>
-      <c r="I74" t="n">
-        <v>49.02999999999998</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="K74" t="n">
-        <v>444.2922222222223</v>
-      </c>
-      <c r="L74" t="n">
         <v>332.3394641025643</v>
       </c>
     </row>
